--- a/SchedulingData/dynamic13/pso/scheduling2_1.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_1.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>239.88</v>
+        <v>220.02</v>
       </c>
       <c r="D2" t="n">
-        <v>324.18</v>
+        <v>270.38</v>
       </c>
       <c r="E2" t="n">
-        <v>12.712</v>
+        <v>13.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>214.58</v>
+        <v>270.38</v>
       </c>
       <c r="D3" t="n">
-        <v>249.64</v>
+        <v>318.08</v>
       </c>
       <c r="E3" t="n">
-        <v>14.256</v>
+        <v>9.972</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>237.72</v>
+        <v>318.08</v>
       </c>
       <c r="D4" t="n">
-        <v>292.26</v>
+        <v>370.82</v>
       </c>
       <c r="E4" t="n">
-        <v>12.944</v>
+        <v>5.828</v>
       </c>
     </row>
     <row r="5">
@@ -523,55 +523,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>214.5</v>
+        <v>370.82</v>
       </c>
       <c r="D5" t="n">
-        <v>241.7</v>
+        <v>418.42</v>
       </c>
       <c r="E5" t="n">
-        <v>16.88</v>
+        <v>3.668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>249.64</v>
+        <v>227.06</v>
       </c>
       <c r="D6" t="n">
-        <v>303.34</v>
+        <v>265.72</v>
       </c>
       <c r="E6" t="n">
-        <v>11.016</v>
+        <v>13.588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>324.18</v>
+        <v>175.3</v>
       </c>
       <c r="D7" t="n">
-        <v>383.28</v>
+        <v>227.4</v>
       </c>
       <c r="E7" t="n">
-        <v>9.412000000000001</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="8">
@@ -580,36 +580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>211.94</v>
+        <v>266.66</v>
       </c>
       <c r="D8" t="n">
-        <v>272.8</v>
+        <v>356.36</v>
       </c>
       <c r="E8" t="n">
-        <v>12.36</v>
+        <v>8.984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>292.26</v>
+        <v>356.36</v>
       </c>
       <c r="D9" t="n">
-        <v>350.38</v>
+        <v>425.22</v>
       </c>
       <c r="E9" t="n">
-        <v>9.752000000000001</v>
+        <v>5.188</v>
       </c>
     </row>
     <row r="10">
@@ -618,112 +618,112 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>248.14</v>
+        <v>265.72</v>
       </c>
       <c r="D10" t="n">
-        <v>310.24</v>
+        <v>307.84</v>
       </c>
       <c r="E10" t="n">
-        <v>11.616</v>
+        <v>10.996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>272.8</v>
+        <v>206.82</v>
       </c>
       <c r="D11" t="n">
-        <v>322.98</v>
+        <v>258.6</v>
       </c>
       <c r="E11" t="n">
-        <v>8.972</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>310.24</v>
+        <v>425.22</v>
       </c>
       <c r="D12" t="n">
-        <v>385.7</v>
+        <v>479.32</v>
       </c>
       <c r="E12" t="n">
-        <v>8.199999999999999</v>
+        <v>1.888</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>383.28</v>
+        <v>479.32</v>
       </c>
       <c r="D13" t="n">
-        <v>425.98</v>
+        <v>562.14</v>
       </c>
       <c r="E13" t="n">
-        <v>7.252</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>303.34</v>
+        <v>562.14</v>
       </c>
       <c r="D14" t="n">
-        <v>362.94</v>
+        <v>615.96</v>
       </c>
       <c r="E14" t="n">
-        <v>6.696</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>362.94</v>
+        <v>307.84</v>
       </c>
       <c r="D15" t="n">
-        <v>419.94</v>
+        <v>347.36</v>
       </c>
       <c r="E15" t="n">
-        <v>3.616</v>
+        <v>8.664</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>425.98</v>
+        <v>221.36</v>
       </c>
       <c r="D16" t="n">
-        <v>493.38</v>
+        <v>271.06</v>
       </c>
       <c r="E16" t="n">
-        <v>4.132</v>
+        <v>12.564</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>322.98</v>
+        <v>258.6</v>
       </c>
       <c r="D17" t="n">
-        <v>375.06</v>
+        <v>296.3</v>
       </c>
       <c r="E17" t="n">
-        <v>5.384</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>241.7</v>
+        <v>296.3</v>
       </c>
       <c r="D18" t="n">
-        <v>322.16</v>
+        <v>343.3</v>
       </c>
       <c r="E18" t="n">
-        <v>12.944</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>493.38</v>
+        <v>343.3</v>
       </c>
       <c r="D19" t="n">
-        <v>567.5599999999999</v>
+        <v>392.58</v>
       </c>
       <c r="E19" t="n">
-        <v>1.324</v>
+        <v>5.752</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>567.5599999999999</v>
+        <v>271.06</v>
       </c>
       <c r="D20" t="n">
-        <v>636.91</v>
+        <v>323.76</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>8.923999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>385.7</v>
+        <v>323.76</v>
       </c>
       <c r="D21" t="n">
-        <v>424.36</v>
+        <v>403.32</v>
       </c>
       <c r="E21" t="n">
-        <v>5.464</v>
+        <v>6.548</v>
       </c>
     </row>
     <row r="22">
@@ -846,55 +846,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>424.36</v>
+        <v>347.36</v>
       </c>
       <c r="D22" t="n">
-        <v>489.32</v>
+        <v>397.88</v>
       </c>
       <c r="E22" t="n">
-        <v>3.088</v>
+        <v>5.752</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>350.38</v>
+        <v>397.88</v>
       </c>
       <c r="D23" t="n">
-        <v>403.48</v>
+        <v>458.84</v>
       </c>
       <c r="E23" t="n">
-        <v>6.572</v>
+        <v>1.776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>322.16</v>
+        <v>458.84</v>
       </c>
       <c r="D24" t="n">
-        <v>381.22</v>
+        <v>551.6900000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>9.148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>636.91</v>
+        <v>403.32</v>
       </c>
       <c r="D25" t="n">
-        <v>682.5700000000001</v>
+        <v>447.8</v>
       </c>
       <c r="E25" t="n">
-        <v>27.624</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="26">
@@ -922,93 +922,93 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>403.48</v>
+        <v>227.4</v>
       </c>
       <c r="D26" t="n">
-        <v>458.28</v>
+        <v>282.96</v>
       </c>
       <c r="E26" t="n">
-        <v>3.712</v>
+        <v>12.364</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>489.32</v>
+        <v>392.58</v>
       </c>
       <c r="D27" t="n">
-        <v>535.48</v>
+        <v>422.74</v>
       </c>
       <c r="E27" t="n">
-        <v>0.592</v>
+        <v>3.376</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>535.48</v>
+        <v>282.96</v>
       </c>
       <c r="D28" t="n">
-        <v>620.9</v>
+        <v>335.74</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>8.715999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>375.06</v>
+        <v>551.6900000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>449.96</v>
+        <v>608.25</v>
       </c>
       <c r="E29" t="n">
-        <v>1.004</v>
+        <v>27.504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>449.96</v>
+        <v>418.42</v>
       </c>
       <c r="D30" t="n">
-        <v>524.75</v>
+        <v>463.84</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>381.22</v>
+        <v>463.84</v>
       </c>
       <c r="D31" t="n">
-        <v>443.62</v>
+        <v>549.13</v>
       </c>
       <c r="E31" t="n">
-        <v>6.028</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1036,41 +1036,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>524.75</v>
+        <v>615.96</v>
       </c>
       <c r="D32" t="n">
-        <v>569.73</v>
+        <v>663.36</v>
       </c>
       <c r="E32" t="n">
-        <v>27.192</v>
+        <v>23.688</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419.94</v>
+        <v>447.8</v>
       </c>
       <c r="D33" t="n">
-        <v>469.12</v>
+        <v>522.36</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8080000000000001</v>
+        <v>1.364</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>469.12</v>
+        <v>522.36</v>
       </c>
       <c r="D34" t="n">
-        <v>534.5</v>
+        <v>626.03</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1089,59 +1089,59 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>569.73</v>
+        <v>608.25</v>
       </c>
       <c r="D35" t="n">
-        <v>630.15</v>
+        <v>655.15</v>
       </c>
       <c r="E35" t="n">
-        <v>24.28</v>
+        <v>25.424</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>443.62</v>
+        <v>422.74</v>
       </c>
       <c r="D36" t="n">
-        <v>479.02</v>
+        <v>463.72</v>
       </c>
       <c r="E36" t="n">
-        <v>3.628</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>620.9</v>
+        <v>463.72</v>
       </c>
       <c r="D37" t="n">
-        <v>661.02</v>
+        <v>544.7</v>
       </c>
       <c r="E37" t="n">
-        <v>27.668</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>458.28</v>
+        <v>335.74</v>
       </c>
       <c r="D38" t="n">
-        <v>513.6</v>
+        <v>405.64</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8</v>
+        <v>5.856</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>513.6</v>
+        <v>405.64</v>
       </c>
       <c r="D39" t="n">
-        <v>598.6</v>
+        <v>474.18</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>2.632</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>534.5</v>
+        <v>626.03</v>
       </c>
       <c r="D40" t="n">
-        <v>600.1</v>
+        <v>664.83</v>
       </c>
       <c r="E40" t="n">
-        <v>27.58</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>682.5700000000001</v>
+        <v>474.18</v>
       </c>
       <c r="D41" t="n">
-        <v>751.99</v>
+        <v>539.48</v>
       </c>
       <c r="E41" t="n">
-        <v>25.292</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="42">
@@ -1226,55 +1226,55 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>598.6</v>
+        <v>539.48</v>
       </c>
       <c r="D42" t="n">
-        <v>651.3200000000001</v>
+        <v>640.46</v>
       </c>
       <c r="E42" t="n">
-        <v>27.408</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>479.02</v>
+        <v>544.7</v>
       </c>
       <c r="D43" t="n">
-        <v>534.8</v>
+        <v>589.78</v>
       </c>
       <c r="E43" t="n">
-        <v>0.66</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>534.8</v>
+        <v>663.36</v>
       </c>
       <c r="D44" t="n">
-        <v>615.28</v>
+        <v>707.98</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>21.356</v>
       </c>
     </row>
   </sheetData>
